--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3108.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3108.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.922966238151188</v>
+        <v>1.316374778747559</v>
       </c>
       <c r="B1">
-        <v>2.101504946400738</v>
+        <v>2.3325355052948</v>
       </c>
       <c r="C1">
-        <v>2.302846249833115</v>
+        <v>3.107927322387695</v>
       </c>
       <c r="D1">
-        <v>3.384715862069699</v>
+        <v>3.628358840942383</v>
       </c>
       <c r="E1">
-        <v>2.729796471082506</v>
+        <v>1.919169425964355</v>
       </c>
     </row>
   </sheetData>
